--- a/research.xlsx
+++ b/research.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABFCD7-CA10-40BE-ACE3-7DAC794EBFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBB5C5-809B-4A9A-92A6-0AE41C591FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="348">
   <si>
     <t> Scrip Name</t>
   </si>
@@ -727,13 +728,355 @@
   </si>
   <si>
     <t>JPASSOCIAT</t>
+  </si>
+  <si>
+    <t>SBI MULTI ASSET ALLOCATION FUND REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>( )( ) ( ) ( ) ( ) </t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL MULTICAP FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>(*)(*) (*) ( ) ( ) </t>
+  </si>
+  <si>
+    <t>PARAG PARIKH FLEXI CAP FUND- REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>(*)(*) (*) (*) (*) </t>
+  </si>
+  <si>
+    <t>BANDHAN LARGE &amp; MID CAP FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>(*)(*) (*) (*) ( ) </t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL LARGE CAP FUND (ERSTWHILE BLUECHIP FUND) - GROWTH</t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL THEMATIC ADVANTAGE FUND (FOF) - GROWTH</t>
+  </si>
+  <si>
+    <t>SUNDARAM CONSUMPTION FUND REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>TATA INDIA CONSUMER FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>SBI BANKING AND FINANCIAL SERVICES FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>WHITEOAK CAPITAL ELSS TAX SAVER FUND REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DSP ELSS TAX SAVER FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>SBI LONG TERM EQUITY FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>PARAG PARIKH ELSS TAX SAVER FUND - REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC ELSS TAX SAVER - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>ITI FOCUSED FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA FOCUSED FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>FRANKLIN INDIA FOCUSED EQUITY FUND-GROWTH</t>
+  </si>
+  <si>
+    <t>BANDHAN FOCUSED FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>(*)(*) ( ) ( ) ( ) </t>
+  </si>
+  <si>
+    <t>DSP FOCUSED FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>FRANKLIN INDIA MULTICAP FUND -REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>SBI MULTICAP FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA MULTICAP FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA MULTI CAP FUND - GROWTH PLAN</t>
+  </si>
+  <si>
+    <t>AXIS VALUE FUND REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>HSBC VALUE FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA VALUE FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>SBI CONTRA FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA GOLD SAVINGS FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>KOTAK GOLD FUND-GROWTH</t>
+  </si>
+  <si>
+    <t>SBI GOLD FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>BANDHAN ARBITRAGE FUND-REGULAR PLAN- GROWTH</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>KOTAK ARBITRAGE FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA ARBITRAGE GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA LIQUID FUND - GROWTH PLAN - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>TATA LIQUID FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>Low to Moderate</t>
+  </si>
+  <si>
+    <t>AXIS LIQUID FUND - REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>SBI MAGNUM ULTRA SHORT DURATION FUND REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>ADITYA BIRLA SUN LIFE SAVINGS FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET ULTRA SHORT DURATION FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>AXIS INCOME PLUS ARBITRAGE ACTIVE FOF REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>BANDHAN INCOME PLUS ARBITRAGE FUND OF FUNDS -REGULAR PLAN- GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>HSBC INCOME PLUS ARBITRAGE ACTIVE FOF GROWTH</t>
+  </si>
+  <si>
+    <t>SUNDARAM EQUITY SAVINGS FUND - REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>EDELWEISS EQUITY SAVINGS FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>DSP EQUITY SAVINGS FUND - REG - GROWTH</t>
+  </si>
+  <si>
+    <t>Moderately High</t>
+  </si>
+  <si>
+    <t>LIC DIVIDEND YIELD FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL DIVIDEND YIELD EQUITY FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>ADITYA BIRLA SUN LIFE DIVIDEND YIELD FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>BAJAJ FINSERV FLEXI CAP FUND REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA FLEXI CAP FUND-REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>MOTILAL OSWAL FLEXI CAP FUND - REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC FLEXICAP FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>TATA TREASURY ADVANTAGE FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>BANDHAN LOW DURATION FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>AXIS TREASURY ADVANTAGE FUND - RETAIL GROWTH</t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL SHORT TERM FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>SBI SHORT TERM DEBT FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>KOTAK BOND SHORT TERM FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC SHORT TERM DEBT FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>PARAG PARIKH CONSERVATIVE HYBRID FUND - REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>HSBC CONSERVATIVE HYBRID FUND -GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC HYBRID DEBT FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>KOTAK DEBT HYBRID FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>SUNDARAM MULTI ASSET ALLOCATION FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA MULTI ASSET ALLOCATION FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>UTI MULTI ASSET ALLOCATION FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL MULTI-ASSET FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>JM SMALL CAP FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>UTI SMALL CAP FUND - REGULAR GROWTH PLAN</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA SMALL CAP FUND - GROWTH PLAN - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>ITI SMALL CAP FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>BANDHAN SMALL CAP FUND REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>WHITEOAK CAPITAL MID CAP FUND REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC MID CAP FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>EDELWEISS MID CAP FUND - REGULAR PLAN - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>MOTILAL OSWAL MIDCAP FUND - REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC CORPORATE BOND FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>KOTAK CORPORATE BOND FUND STANDARD GROWTH</t>
+  </si>
+  <si>
+    <t>ADITYA BIRLA SUN LIFE CORPORATE BOND FUND - GROWTH-REGULAR PLAN</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA DYNAMIC BOND FUND - GROWTH PLAN</t>
+  </si>
+  <si>
+    <t>BANDHAN DYNAMIC BOND FUND-REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET DYNAMIC BOND FUND-REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>(*)( ) ( ) ( ) ( ) </t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL ALL SEASONS BOND FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>ADITYA BIRLA SUN LIFE BALANCED ADVANTAGE FUND - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>BARODA BNP PARIBAS BALANCED ADVANTAGE FUND - REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>AXIS BALANCED ADVANTAGE FUND REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>ICICI PRUDENTIAL BALANCED ADVANTAGE FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>HDFC BALANCED ADVANTAGE FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA AGGRESSIVE HYBRID FUND - REGULAR PLAN GROWTH</t>
+  </si>
+  <si>
+    <t>DSP AGGRESSIVE HYBRID FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>EDELWEISS AGGRESSIVE HYBRID FUND - GROWTH PLAN</t>
+  </si>
+  <si>
+    <t>MAHINDRA MANULIFE AGGRESSIVE HYBRID FUND - REGULAR - GROWTH</t>
+  </si>
+  <si>
+    <t>UTI AGGRESSIVE HYBRID FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>BAJAJ FINSERV LARGE AND MID CAP FUND - REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>UTI LARGE &amp; MID CAP FUND - REGULAR PLAN-GROWTH</t>
+  </si>
+  <si>
+    <t>MOTILAL OSWAL LARGE AND MIDCAP FUND-REGULAR GROWTH</t>
+  </si>
+  <si>
+    <t>INVESCO INDIA LARGE &amp; MID CAP FUND - GROWTH</t>
+  </si>
+  <si>
+    <t>MOTILAL OSWAL LARGE CAP FUND - REGULAR - GROWTH</t>
+  </si>
+  <si>
+    <t>WHITEOAK CAPITAL LARGE CAP FUND REGULAR PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA LARGE CAP FUND - GROWTH PLAN - GROWTH</t>
+  </si>
+  <si>
+    <t>DSP LARGE CAP FUND - REGULAR PLAN - GROWTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +1110,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -794,7 +1143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -833,12 +1182,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +1243,18 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8884,4 +9260,2775 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F9CC6E-E62E-4ADE-87E3-DED73E5CA8F5}">
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M94" activeCellId="1" sqref="A1:H106 M94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="16">
+        <v>59.85</v>
+      </c>
+      <c r="E1" s="17">
+        <v>8940.0400000000009</v>
+      </c>
+      <c r="F1" s="18">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H1" s="18">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="16">
+        <v>804.83</v>
+      </c>
+      <c r="E2" s="17">
+        <v>15094.86</v>
+      </c>
+      <c r="F2" s="18">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.2414</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.25929999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="16">
+        <v>85.12</v>
+      </c>
+      <c r="E3" s="17">
+        <v>110392.32000000001</v>
+      </c>
+      <c r="F3" s="18">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="16">
+        <v>133.72</v>
+      </c>
+      <c r="E4" s="17">
+        <v>9106.59</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3.78E-2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.27689999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="16">
+        <v>111.69</v>
+      </c>
+      <c r="E5" s="17">
+        <v>69762.55</v>
+      </c>
+      <c r="F5" s="18">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.23039999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="16">
+        <v>228.54</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3470.13</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.1424</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="16">
+        <v>97.65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1548.26</v>
+      </c>
+      <c r="F7" s="18">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.20330000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43.94</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2378.6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="16">
+        <v>43.16</v>
+      </c>
+      <c r="E9" s="17">
+        <v>8537.5</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.2243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="16">
+        <v>17.63</v>
+      </c>
+      <c r="E10" s="16">
+        <v>382.89</v>
+      </c>
+      <c r="F10" s="18">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="16">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>17427.57</v>
+      </c>
+      <c r="F11" s="18">
+        <v>5.04E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.2505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="16">
+        <v>444.22</v>
+      </c>
+      <c r="E12" s="17">
+        <v>30616.22</v>
+      </c>
+      <c r="F12" s="18">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.2833</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.2742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="16">
+        <v>32.17</v>
+      </c>
+      <c r="E13" s="17">
+        <v>5557.37</v>
+      </c>
+      <c r="F13" s="18">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1419.13</v>
+      </c>
+      <c r="E14" s="17">
+        <v>16453.669999999998</v>
+      </c>
+      <c r="F14" s="18">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="16">
+        <v>15.33</v>
+      </c>
+      <c r="E15" s="16">
+        <v>538.1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="16">
+        <v>28.62</v>
+      </c>
+      <c r="E16" s="17">
+        <v>4153.3900000000003</v>
+      </c>
+      <c r="F16" s="18">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="16">
+        <v>108.19</v>
+      </c>
+      <c r="E17" s="17">
+        <v>12536.45</v>
+      </c>
+      <c r="F17" s="18">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="16">
+        <v>88.56</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1838.84</v>
+      </c>
+      <c r="F18" s="18">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="16">
+        <v>55.03</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2627.6</v>
+      </c>
+      <c r="F19" s="18">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.1991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10.32</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5086.58</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="16">
+        <v>17.29</v>
+      </c>
+      <c r="E21" s="17">
+        <v>21724.53</v>
+      </c>
+      <c r="F21" s="18">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="16">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4182.05</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.24690000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="16">
+        <v>301.77</v>
+      </c>
+      <c r="E23" s="17">
+        <v>45366.09</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.2767</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.31730000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="16">
+        <v>804.83</v>
+      </c>
+      <c r="E24" s="17">
+        <v>15094.86</v>
+      </c>
+      <c r="F24" s="18">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.2414</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.25929999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="16">
+        <v>18.53</v>
+      </c>
+      <c r="E25" s="16">
+        <v>921.06</v>
+      </c>
+      <c r="F25" s="18">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="16">
+        <v>111.6</v>
+      </c>
+      <c r="E26" s="17">
+        <v>14053.52</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="16">
+        <v>228.65</v>
+      </c>
+      <c r="E27" s="17">
+        <v>8954.7999999999993</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.28189999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="16">
+        <v>390.21</v>
+      </c>
+      <c r="E28" s="17">
+        <v>47389.62</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1.52E-2</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.2487</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="16">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3125.64</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.12640000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="16">
+        <v>37.47</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3099.36</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.2954</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.217</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="E31" s="17">
+        <v>4409.8900000000003</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.2994</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.2213</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.1293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="16">
+        <v>32.51</v>
+      </c>
+      <c r="E32" s="17">
+        <v>9042.14</v>
+      </c>
+      <c r="F32" s="18">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G32" s="18">
+        <v>6.88E-2</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="16">
+        <v>37.56</v>
+      </c>
+      <c r="E33" s="17">
+        <v>67362.14</v>
+      </c>
+      <c r="F33" s="18">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="16">
+        <v>31.97</v>
+      </c>
+      <c r="E34" s="17">
+        <v>23899.9</v>
+      </c>
+      <c r="F34" s="18">
+        <v>6.93E-2</v>
+      </c>
+      <c r="G34" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="17">
+        <v>6384.35</v>
+      </c>
+      <c r="E35" s="17">
+        <v>34489.730000000003</v>
+      </c>
+      <c r="F35" s="18">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="G35" s="18">
+        <v>6.93E-2</v>
+      </c>
+      <c r="H35" s="18">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="17">
+        <v>4120.05</v>
+      </c>
+      <c r="E36" s="17">
+        <v>23617.43</v>
+      </c>
+      <c r="F36" s="18">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="G36" s="18">
+        <v>6.93E-2</v>
+      </c>
+      <c r="H36" s="18">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="17">
+        <v>2912.67</v>
+      </c>
+      <c r="E37" s="17">
+        <v>42072.07</v>
+      </c>
+      <c r="F37" s="18">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="G37" s="18">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="H37" s="18">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="17">
+        <v>5993.7</v>
+      </c>
+      <c r="E38" s="17">
+        <v>16407.96</v>
+      </c>
+      <c r="F38" s="18">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="G38" s="18">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="H38" s="18">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="16">
+        <v>550.39</v>
+      </c>
+      <c r="E39" s="17">
+        <v>19189.39</v>
+      </c>
+      <c r="F39" s="18">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="G39" s="18">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H39" s="18">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1312.55</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1720.37</v>
+      </c>
+      <c r="F40" s="18">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="G40" s="18">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="16">
+        <v>14.49</v>
+      </c>
+      <c r="E41" s="16">
+        <v>501.75</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="G41" s="18">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="H41" s="18">
+        <v>6.5100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="16">
+        <v>43.93</v>
+      </c>
+      <c r="E42" s="16">
+        <v>462.54</v>
+      </c>
+      <c r="F42" s="18">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="G42" s="18">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="H42" s="18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="E43" s="16">
+        <v>519.53</v>
+      </c>
+      <c r="F43" s="18">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G43" s="18">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="H43" s="18">
+        <v>6.0900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="16">
+        <v>70.8</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1049.28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="16">
+        <v>25.3</v>
+      </c>
+      <c r="E45" s="16">
+        <v>638.92999999999995</v>
+      </c>
+      <c r="F45" s="18">
+        <v>8.72E-2</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="16">
+        <v>21.84</v>
+      </c>
+      <c r="E46" s="17">
+        <v>3191.95</v>
+      </c>
+      <c r="F46" s="18">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0.1096</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0.1174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="16">
+        <v>31.07</v>
+      </c>
+      <c r="E47" s="16">
+        <v>613.32000000000005</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0.2535</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="E48" s="17">
+        <v>5400.52</v>
+      </c>
+      <c r="F48" s="18">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="16">
+        <v>454</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1523.63</v>
+      </c>
+      <c r="F49" s="18">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0.2487</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0.24690000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="E50" s="17">
+        <v>3115.43</v>
+      </c>
+      <c r="F50" s="18">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="16">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="E51" s="17">
+        <v>3266.88</v>
+      </c>
+      <c r="F51" s="18">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0.2621</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="16">
+        <v>85.12</v>
+      </c>
+      <c r="E52" s="17">
+        <v>110392.32000000001</v>
+      </c>
+      <c r="F52" s="18">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="16">
+        <v>62.85</v>
+      </c>
+      <c r="E53" s="17">
+        <v>13893.76</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.1108</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0.2102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1989.1</v>
+      </c>
+      <c r="E54" s="17">
+        <v>75784.479999999996</v>
+      </c>
+      <c r="F54" s="18">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="G54" s="18">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0.2913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="17">
+        <v>3948.62</v>
+      </c>
+      <c r="E55" s="17">
+        <v>3066.1</v>
+      </c>
+      <c r="F55" s="18">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="G55" s="18">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H55" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="16">
+        <v>38.75</v>
+      </c>
+      <c r="E56" s="17">
+        <v>6579.95</v>
+      </c>
+      <c r="F56" s="18">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="G56" s="18">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="H56" s="18">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2914.23</v>
+      </c>
+      <c r="E57" s="17">
+        <v>6565.77</v>
+      </c>
+      <c r="F57" s="18">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="G57" s="18">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="H57" s="18">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="16">
+        <v>60.53</v>
+      </c>
+      <c r="E58" s="17">
+        <v>21628.959999999999</v>
+      </c>
+      <c r="F58" s="18">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="G58" s="18">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="H58" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="16">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="E59" s="17">
+        <v>16052.83</v>
+      </c>
+      <c r="F59" s="18">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G59" s="18">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="H59" s="18">
+        <v>5.7799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="16">
+        <v>52.48</v>
+      </c>
+      <c r="E60" s="17">
+        <v>18428.66</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="G60" s="18">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="H60" s="18">
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="16">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="E61" s="17">
+        <v>17018.509999999998</v>
+      </c>
+      <c r="F61" s="18">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="G61" s="18">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="H61" s="18">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="16">
+        <v>15.09</v>
+      </c>
+      <c r="E62" s="17">
+        <v>2755.57</v>
+      </c>
+      <c r="F62" s="18">
+        <v>9.06E-2</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0.1208</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="16">
+        <v>61.31</v>
+      </c>
+      <c r="E63" s="16">
+        <v>163.37</v>
+      </c>
+      <c r="F63" s="18">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0.1101</v>
+      </c>
+      <c r="H63" s="18">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="16">
+        <v>82.41</v>
+      </c>
+      <c r="E64" s="17">
+        <v>3382.82</v>
+      </c>
+      <c r="F64" s="18">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="H64" s="18">
+        <v>0.11749999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="16">
+        <v>58.54</v>
+      </c>
+      <c r="E65" s="17">
+        <v>3107.64</v>
+      </c>
+      <c r="F65" s="18">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0.1163</v>
+      </c>
+      <c r="H65" s="18">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="16">
+        <v>12.28</v>
+      </c>
+      <c r="E66" s="17">
+        <v>2625.23</v>
+      </c>
+      <c r="F66" s="18">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="E67" s="17">
+        <v>6367.91</v>
+      </c>
+      <c r="F67" s="18">
+        <v>9.35E-2</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0.1956</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="16">
+        <v>59.85</v>
+      </c>
+      <c r="E68" s="17">
+        <v>8940.0400000000009</v>
+      </c>
+      <c r="F68" s="18">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H68" s="18">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="16">
+        <v>74.66</v>
+      </c>
+      <c r="E69" s="17">
+        <v>5659.43</v>
+      </c>
+      <c r="F69" s="18">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="H69" s="18">
+        <v>0.1671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="16">
+        <v>761.33</v>
+      </c>
+      <c r="E70" s="17">
+        <v>59452.32</v>
+      </c>
+      <c r="F70" s="18">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="H70" s="18">
+        <v>0.2414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="16">
+        <v>10.23</v>
+      </c>
+      <c r="E71" s="16">
+        <v>763.09</v>
+      </c>
+      <c r="F71" s="18">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="16">
+        <v>26.62</v>
+      </c>
+      <c r="E72" s="17">
+        <v>4529.01</v>
+      </c>
+      <c r="F72" s="18">
+        <v>5.96E-2</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="16">
+        <v>173.53</v>
+      </c>
+      <c r="E73" s="17">
+        <v>66601.8</v>
+      </c>
+      <c r="F73" s="18">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H73" s="18">
+        <v>0.37190000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="16">
+        <v>28.99</v>
+      </c>
+      <c r="E74" s="17">
+        <v>2640.78</v>
+      </c>
+      <c r="F74" s="18">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="H74" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="16">
+        <v>47.4</v>
+      </c>
+      <c r="E75" s="17">
+        <v>11743.7</v>
+      </c>
+      <c r="F75" s="18">
+        <v>0.1036</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="H75" s="18">
+        <v>0.3574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="16">
+        <v>19.23</v>
+      </c>
+      <c r="E76" s="17">
+        <v>3190.59</v>
+      </c>
+      <c r="F76" s="18">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="16">
+        <v>196.73</v>
+      </c>
+      <c r="E77" s="17">
+        <v>79717.67</v>
+      </c>
+      <c r="F77" s="18">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="H77" s="18">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="16">
+        <v>101.94</v>
+      </c>
+      <c r="E78" s="17">
+        <v>10027.89</v>
+      </c>
+      <c r="F78" s="18">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0.2974</v>
+      </c>
+      <c r="H78" s="18">
+        <v>0.32579999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="16">
+        <v>102.93</v>
+      </c>
+      <c r="E79" s="17">
+        <v>33053.129999999997</v>
+      </c>
+      <c r="F79" s="18">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G79" s="18">
+        <v>0.3261</v>
+      </c>
+      <c r="H79" s="18">
+        <v>0.35549999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="16">
+        <v>32.75</v>
+      </c>
+      <c r="E80" s="17">
+        <v>35493.339999999997</v>
+      </c>
+      <c r="F80" s="18">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="G80" s="18">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="H80" s="18">
+        <v>6.3100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="17">
+        <v>3800.58</v>
+      </c>
+      <c r="E81" s="17">
+        <v>17238.169999999998</v>
+      </c>
+      <c r="F81" s="18">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="G81" s="18">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="H81" s="18">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="16">
+        <v>113.56</v>
+      </c>
+      <c r="E82" s="17">
+        <v>28629.93</v>
+      </c>
+      <c r="F82" s="18">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="G82" s="18">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="H82" s="18">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="16">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="E83" s="17">
+        <v>4637.4799999999996</v>
+      </c>
+      <c r="F83" s="18">
+        <v>0.1017</v>
+      </c>
+      <c r="G83" s="18">
+        <v>8.43E-2</v>
+      </c>
+      <c r="H83" s="18">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="16">
+        <v>33.78</v>
+      </c>
+      <c r="E84" s="17">
+        <v>2863.5</v>
+      </c>
+      <c r="F84" s="18">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="G84" s="18">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="H84" s="18">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="16">
+        <v>16.23</v>
+      </c>
+      <c r="E85" s="16">
+        <v>120.63</v>
+      </c>
+      <c r="F85" s="18">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="G85" s="18">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="H85" s="18">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="16">
+        <v>37.15</v>
+      </c>
+      <c r="E86" s="17">
+        <v>14974.06</v>
+      </c>
+      <c r="F86" s="18">
+        <v>9.35E-2</v>
+      </c>
+      <c r="G86" s="18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H86" s="18">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="16">
+        <v>107.28</v>
+      </c>
+      <c r="E87" s="17">
+        <v>8034.13</v>
+      </c>
+      <c r="F87" s="18">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="G87" s="18">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="H87" s="18">
+        <v>0.14729999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="16">
+        <v>24.74</v>
+      </c>
+      <c r="E88" s="17">
+        <v>4413.0200000000004</v>
+      </c>
+      <c r="F88" s="18">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="G88" s="18">
+        <v>0.1762</v>
+      </c>
+      <c r="H88" s="18">
+        <v>0.16520000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="16">
+        <v>21.08</v>
+      </c>
+      <c r="E89" s="17">
+        <v>3160.82</v>
+      </c>
+      <c r="F89" s="18">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="G89" s="18">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="H89" s="18">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="16">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="E90" s="17">
+        <v>63786.84</v>
+      </c>
+      <c r="F90" s="18">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="H90" s="18">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="16">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="E91" s="17">
+        <v>100299.29</v>
+      </c>
+      <c r="F91" s="18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="H91" s="18">
+        <v>0.24490000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="16">
+        <v>22.82</v>
+      </c>
+      <c r="E92" s="16">
+        <v>741.62</v>
+      </c>
+      <c r="F92" s="18">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="G92" s="18">
+        <v>0.1943</v>
+      </c>
+      <c r="H92" s="18">
+        <v>0.17549999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="16">
+        <v>361.03</v>
+      </c>
+      <c r="E93" s="17">
+        <v>11417.61</v>
+      </c>
+      <c r="F93" s="18">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0.1905</v>
+      </c>
+      <c r="H93" s="18">
+        <v>0.1822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="16">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="E94" s="17">
+        <v>2749.34</v>
+      </c>
+      <c r="F94" s="18">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="G94" s="18">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="H94" s="18">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="16">
+        <v>27.44</v>
+      </c>
+      <c r="E95" s="17">
+        <v>1797.7</v>
+      </c>
+      <c r="F95" s="18">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H95" s="18">
+        <v>0.21160000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="16">
+        <v>408.7</v>
+      </c>
+      <c r="E96" s="17">
+        <v>6254.02</v>
+      </c>
+      <c r="F96" s="18">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0.193</v>
+      </c>
+      <c r="H96" s="18">
+        <v>0.2132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="16">
+        <v>12.38</v>
+      </c>
+      <c r="E97" s="17">
+        <v>1143.77</v>
+      </c>
+      <c r="F97" s="18">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="16">
+        <v>133.72</v>
+      </c>
+      <c r="E98" s="17">
+        <v>9106.59</v>
+      </c>
+      <c r="F98" s="18">
+        <v>3.78E-2</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="H98" s="18">
+        <v>0.27689999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="16">
+        <v>181.66</v>
+      </c>
+      <c r="E99" s="17">
+        <v>4543.6400000000003</v>
+      </c>
+      <c r="F99" s="18">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="H99" s="18">
+        <v>0.27339999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" s="16">
+        <v>34.19</v>
+      </c>
+      <c r="E100" s="17">
+        <v>11816.3</v>
+      </c>
+      <c r="F100" s="18">
+        <v>0.1313</v>
+      </c>
+      <c r="G100" s="18">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="H100" s="18">
+        <v>0.29409999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="16">
+        <v>100.95</v>
+      </c>
+      <c r="E101" s="17">
+        <v>7886.66</v>
+      </c>
+      <c r="F101" s="18">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="G101" s="18">
+        <v>0.2848</v>
+      </c>
+      <c r="H101" s="18">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="16">
+        <v>14.15</v>
+      </c>
+      <c r="E102" s="17">
+        <v>2533.92</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="16">
+        <v>14.91</v>
+      </c>
+      <c r="E103" s="16">
+        <v>924.57</v>
+      </c>
+      <c r="F103" s="18">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="16">
+        <v>111.69</v>
+      </c>
+      <c r="E104" s="17">
+        <v>69762.55</v>
+      </c>
+      <c r="F104" s="18">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="H104" s="18">
+        <v>0.23039999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="16">
+        <v>91.27</v>
+      </c>
+      <c r="E105" s="17">
+        <v>43828.6</v>
+      </c>
+      <c r="F105" s="18">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="H105" s="18">
+        <v>0.25729999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="16">
+        <v>478.06</v>
+      </c>
+      <c r="E106" s="17">
+        <v>6323.27</v>
+      </c>
+      <c r="F106" s="18">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="H106" s="18">
+        <v>0.2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>